--- a/com.crm.SeleniumSdet42FrameWork/book.xlsx
+++ b/com.crm.SeleniumSdet42FrameWork/book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16185" windowHeight="6390" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14400" windowHeight="6390" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="actitime" sheetId="4" r:id="rId4"/>
     <sheet name="project" sheetId="5" r:id="rId5"/>
     <sheet name="vendor" sheetId="6" r:id="rId6"/>
+    <sheet name="Opportunities" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Qspider</t>
   </si>
@@ -118,6 +119,9 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>software Test</t>
   </si>
 </sst>
 </file>
@@ -622,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E21"/>
     </sheetView>
   </sheetViews>
@@ -712,4 +716,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>